--- a/自己申请Nov_20.xlsx
+++ b/自己申请Nov_20.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11012"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D2CDA2-680A-3142-AC90-484F34706560}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E3EBE00-3541-0F4F-95AF-456C56C1E37F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="179">
   <si>
     <t>账号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -728,9 +728,6 @@
   </si>
   <si>
     <t>陈志奎</t>
-  </si>
-  <si>
-    <t>已发送</t>
   </si>
   <si>
     <t>2</t>
@@ -948,7 +945,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1011,18 +1008,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1075,7 +1060,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1158,16 +1143,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1209,15 +1188,12 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1228,6 +1204,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1841,14 +1820,14 @@
   <dimension ref="A1:AH12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="R1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T6" sqref="T6"/>
+      <pane xSplit="3" topLeftCell="P1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.5" style="31" customWidth="1"/>
+    <col min="2" max="2" width="31.5" style="29" customWidth="1"/>
     <col min="3" max="3" width="18.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="37.1640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
@@ -1985,52 +1964,52 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:34" s="43" customFormat="1" ht="153" customHeight="1">
-      <c r="A2" s="35">
+    <row r="2" spans="1:34" s="41" customFormat="1" ht="153" customHeight="1">
+      <c r="A2" s="33">
         <v>0</v>
       </c>
       <c r="B2" s="19"/>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38" t="s">
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39" t="s">
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="L2" s="40"/>
-      <c r="M2" s="37" t="s">
+      <c r="L2" s="38"/>
+      <c r="M2" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="N2" s="37" t="s">
+      <c r="N2" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="O2" s="37" t="s">
+      <c r="O2" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="P2" s="37" t="s">
+      <c r="P2" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="Q2" s="39" t="s">
+      <c r="Q2" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="R2" s="38"/>
-      <c r="S2" s="39" t="s">
+      <c r="R2" s="36"/>
+      <c r="S2" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="T2" s="39" t="s">
+      <c r="T2" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="U2" s="41" t="s">
+      <c r="U2" s="39" t="s">
         <v>12</v>
       </c>
       <c r="V2" s="19" t="s">
@@ -2039,41 +2018,41 @@
       <c r="W2" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="X2" s="42" t="s">
+      <c r="X2" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="Y2" s="41" t="s">
+      <c r="Y2" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="Z2" s="41" t="s">
+      <c r="Z2" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="AA2" s="41" t="s">
+      <c r="AA2" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="AB2" s="41" t="s">
+      <c r="AB2" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="AC2" s="41" t="s">
+      <c r="AC2" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="AD2" s="41" t="s">
+      <c r="AD2" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="AE2" s="41" t="s">
+      <c r="AE2" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="AF2" s="41" t="s">
+      <c r="AF2" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="AG2" s="38"/>
-      <c r="AH2" s="38"/>
+      <c r="AG2" s="36"/>
+      <c r="AH2" s="36"/>
     </row>
     <row r="3" spans="1:34" ht="156" customHeight="1">
-      <c r="A3" s="44">
+      <c r="A3" s="42">
         <v>1</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="44" t="s">
         <v>71</v>
       </c>
       <c r="C3" s="16" t="s">
@@ -2127,7 +2106,7 @@
       <c r="W3" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="X3" s="45" t="s">
+      <c r="X3" s="43" t="s">
         <v>169</v>
       </c>
       <c r="Y3" s="20" t="s">
@@ -2158,10 +2137,10 @@
       <c r="AH3" s="17"/>
     </row>
     <row r="4" spans="1:34" ht="82" customHeight="1">
-      <c r="A4" s="30">
+      <c r="A4" s="42">
         <v>2</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="44" t="s">
         <v>51</v>
       </c>
       <c r="C4" s="16" t="s">
@@ -2215,14 +2194,14 @@
       <c r="W4" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="X4" s="45" t="s">
+      <c r="X4" s="43" t="s">
         <v>169</v>
       </c>
       <c r="Y4" s="20" t="s">
         <v>14</v>
       </c>
       <c r="Z4" s="20" t="s">
-        <v>177</v>
+        <v>14</v>
       </c>
       <c r="AA4" s="20" t="s">
         <v>167</v>
@@ -2246,16 +2225,16 @@
       <c r="AH4" s="17"/>
     </row>
     <row r="5" spans="1:34" ht="82" customHeight="1">
-      <c r="A5" s="30">
+      <c r="A5" s="42">
         <v>3</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="44" t="s">
         <v>146</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="31" t="s">
         <v>156</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -2282,7 +2261,7 @@
       <c r="N5" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="O5" s="34" t="s">
+      <c r="O5" s="32" t="s">
         <v>160</v>
       </c>
       <c r="P5" s="25" t="s">
@@ -2303,14 +2282,14 @@
       <c r="W5" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="X5" s="45" t="s">
+      <c r="X5" s="43" t="s">
         <v>169</v>
       </c>
       <c r="Y5" s="20" t="s">
         <v>14</v>
       </c>
       <c r="Z5" s="20" t="s">
-        <v>177</v>
+        <v>14</v>
       </c>
       <c r="AA5" s="20" t="s">
         <v>14</v>
@@ -2334,10 +2313,10 @@
       <c r="AH5" s="17"/>
     </row>
     <row r="6" spans="1:34" ht="80" customHeight="1">
-      <c r="A6" s="30">
+      <c r="A6" s="42">
         <v>4</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="45" t="s">
         <v>52</v>
       </c>
       <c r="C6" s="16" t="s">
@@ -2391,14 +2370,14 @@
       <c r="W6" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="X6" s="45" t="s">
+      <c r="X6" s="43" t="s">
         <v>169</v>
       </c>
       <c r="Y6" s="20" t="s">
         <v>14</v>
       </c>
       <c r="Z6" s="20" t="s">
-        <v>177</v>
+        <v>14</v>
       </c>
       <c r="AA6" s="20" t="s">
         <v>167</v>
@@ -2422,10 +2401,10 @@
       <c r="AH6" s="17"/>
     </row>
     <row r="7" spans="1:34" ht="80" customHeight="1">
-      <c r="A7" s="44">
+      <c r="A7" s="42">
         <v>5</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="44" t="s">
         <v>53</v>
       </c>
       <c r="C7" s="22" t="s">
@@ -2437,10 +2416,10 @@
       <c r="E7" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="F7" s="28" t="s">
+      <c r="F7" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="G7" s="28" t="s">
+      <c r="G7" s="27" t="s">
         <v>88</v>
       </c>
       <c r="H7" s="3" t="s">
@@ -2461,7 +2440,7 @@
       <c r="O7" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="P7" s="32" t="s">
+      <c r="P7" s="30" t="s">
         <v>144</v>
       </c>
       <c r="Q7" s="17" t="s">
@@ -2479,7 +2458,7 @@
       <c r="W7" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="X7" s="45" t="s">
+      <c r="X7" s="43" t="s">
         <v>169</v>
       </c>
       <c r="Y7" s="20" t="s">
@@ -2510,10 +2489,10 @@
       <c r="AH7" s="17"/>
     </row>
     <row r="8" spans="1:34" ht="80" customHeight="1">
-      <c r="A8" s="27">
+      <c r="A8" s="48">
         <v>6</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="44" t="s">
         <v>54</v>
       </c>
       <c r="C8" s="22" t="s">
@@ -2522,13 +2501,13 @@
       <c r="D8" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="F8" s="28" t="s">
+      <c r="F8" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="27" t="s">
         <v>97</v>
       </c>
       <c r="H8" s="3" t="s">
@@ -2555,15 +2534,15 @@
       <c r="S8" s="17"/>
       <c r="T8" s="18"/>
       <c r="U8" s="20" t="s">
-        <v>12</v>
+        <v>145</v>
       </c>
       <c r="V8" s="19" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="W8" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="X8" s="50" t="s">
+        <v>134</v>
+      </c>
+      <c r="X8" s="47" t="s">
         <v>170</v>
       </c>
       <c r="Y8" s="20" t="s">
@@ -2579,25 +2558,25 @@
         <v>23</v>
       </c>
       <c r="AC8" s="20" t="s">
-        <v>12</v>
+        <v>145</v>
       </c>
       <c r="AD8" s="20" t="s">
-        <v>12</v>
+        <v>145</v>
       </c>
       <c r="AE8" s="20" t="s">
-        <v>12</v>
+        <v>145</v>
       </c>
       <c r="AF8" s="20" t="s">
-        <v>12</v>
+        <v>145</v>
       </c>
       <c r="AG8" s="17"/>
       <c r="AH8" s="17"/>
     </row>
     <row r="9" spans="1:34" ht="80" customHeight="1">
-      <c r="A9" s="44">
+      <c r="A9" s="42">
         <v>7</v>
       </c>
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="46" t="s">
         <v>55</v>
       </c>
       <c r="C9" s="22" t="s">
@@ -2606,13 +2585,13 @@
       <c r="D9" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="F9" s="28" t="s">
+      <c r="F9" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="27" t="s">
         <v>115</v>
       </c>
       <c r="H9" s="3" t="s">
@@ -2646,7 +2625,7 @@
       <c r="W9" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="X9" s="45" t="s">
+      <c r="X9" s="43" t="s">
         <v>168</v>
       </c>
       <c r="Y9" s="20" t="s">
@@ -2677,10 +2656,10 @@
       <c r="AH9" s="17"/>
     </row>
     <row r="10" spans="1:34" ht="80" customHeight="1">
-      <c r="A10" s="30">
+      <c r="A10" s="42">
         <v>8</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="44" t="s">
         <v>150</v>
       </c>
       <c r="C10" s="22" t="s">
@@ -2689,13 +2668,13 @@
       <c r="D10" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="F10" s="28" t="s">
+      <c r="F10" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="G10" s="27" t="s">
         <v>114</v>
       </c>
       <c r="H10" s="3" t="s">
@@ -2728,11 +2707,11 @@
       <c r="W10" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="X10" s="45" t="s">
-        <v>178</v>
+      <c r="X10" s="43" t="s">
+        <v>177</v>
       </c>
       <c r="Y10" s="20" t="s">
-        <v>177</v>
+        <v>14</v>
       </c>
       <c r="Z10" s="20" t="s">
         <v>167</v>
@@ -2741,7 +2720,7 @@
         <v>167</v>
       </c>
       <c r="AB10" s="20" t="s">
-        <v>177</v>
+        <v>14</v>
       </c>
       <c r="AC10" s="20" t="s">
         <v>145</v>
@@ -2759,28 +2738,28 @@
       <c r="AH10" s="17"/>
     </row>
     <row r="11" spans="1:34" ht="80" customHeight="1">
-      <c r="A11" s="46">
+      <c r="A11" s="42">
         <v>9</v>
       </c>
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="44" t="s">
         <v>58</v>
       </c>
       <c r="C11" s="22" t="s">
         <v>118</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="E11" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="E11" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="F11" s="28" t="s">
+      <c r="F11" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="G11" s="29" t="s">
+      <c r="G11" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="H11" s="28" t="s">
+      <c r="H11" s="27" t="s">
         <v>120</v>
       </c>
       <c r="I11" s="3"/>
@@ -2802,26 +2781,28 @@
       <c r="S11" s="17"/>
       <c r="T11" s="18"/>
       <c r="U11" s="20" t="s">
-        <v>12</v>
+        <v>145</v>
       </c>
       <c r="V11" s="19" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="W11" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="X11" s="45"/>
+        <v>134</v>
+      </c>
+      <c r="X11" s="43" t="s">
+        <v>169</v>
+      </c>
       <c r="Y11" s="20" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="Z11" s="20" t="s">
-        <v>23</v>
+        <v>167</v>
       </c>
       <c r="AA11" s="20" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="AB11" s="20" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="AC11" s="20" t="s">
         <v>12</v>
@@ -2830,19 +2811,19 @@
         <v>12</v>
       </c>
       <c r="AE11" s="20" t="s">
-        <v>12</v>
+        <v>145</v>
       </c>
       <c r="AF11" s="20" t="s">
-        <v>12</v>
+        <v>145</v>
       </c>
       <c r="AG11" s="17"/>
       <c r="AH11" s="17"/>
     </row>
     <row r="12" spans="1:34" ht="80" customHeight="1">
-      <c r="A12" s="44">
+      <c r="A12" s="42">
         <v>10</v>
       </c>
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="46" t="s">
         <v>149</v>
       </c>
       <c r="C12" s="22" t="s">
@@ -2851,13 +2832,13 @@
       <c r="D12" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="E12" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="F12" s="28" t="s">
+      <c r="F12" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="G12" s="28" t="s">
+      <c r="G12" s="27" t="s">
         <v>127</v>
       </c>
       <c r="H12" s="3" t="s">
@@ -2892,7 +2873,7 @@
       <c r="W12" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="X12" s="45" t="s">
+      <c r="X12" s="43" t="s">
         <v>168</v>
       </c>
       <c r="Y12" s="20" t="s">

--- a/自己申请Nov_20.xlsx
+++ b/自己申请Nov_20.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11012"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E3EBE00-3541-0F4F-95AF-456C56C1E37F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38332C21-77C9-8C45-91C1-7AA321475402}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27580" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="定校信息" sheetId="1" r:id="rId1"/>
@@ -1060,7 +1060,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1204,9 +1204,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1819,9 +1816,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="V8" sqref="V8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="W1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Y8" sqref="Y8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -2489,7 +2486,7 @@
       <c r="AH7" s="17"/>
     </row>
     <row r="8" spans="1:34" ht="80" customHeight="1">
-      <c r="A8" s="48">
+      <c r="A8" s="42">
         <v>6</v>
       </c>
       <c r="B8" s="44" t="s">
@@ -2546,16 +2543,16 @@
         <v>170</v>
       </c>
       <c r="Y8" s="20" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="Z8" s="20" t="s">
         <v>167</v>
       </c>
       <c r="AA8" s="20" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="AB8" s="20" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="AC8" s="20" t="s">
         <v>145</v>
